--- a/src/assets/save/ThematicDataExport.xlsx
+++ b/src/assets/save/ThematicDataExport.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,33 +413,33 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Card 7</v>
+        <v>Digital boobs</v>
       </c>
       <c r="B2" t="str">
-        <v>Card 10</v>
+        <v>Discarded</v>
       </c>
       <c r="C2" t="str">
-        <v>Card 2</v>
+        <v>My waifu</v>
       </c>
       <c r="D2" t="str">
-        <v>Card 4</v>
+        <v>My waifu</v>
       </c>
       <c r="E2" t="str">
-        <v>Card 1</v>
+        <v>Digital boobs</v>
       </c>
       <c r="F2" t="str">
-        <v>Card 7</v>
+        <v>Never</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Card 7</v>
+        <v/>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>Discarded</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>My waifu</v>
       </c>
       <c r="D3" t="str">
         <v/>
@@ -448,49 +448,86 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <v>Card 7</v>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Card 7</v>
+        <v>My waifu</v>
       </c>
       <c r="B4" t="str">
-        <v>Card 8</v>
+        <v/>
       </c>
       <c r="C4" t="str">
-        <v>Card 3</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>Card 5</v>
+        <v>Never</v>
       </c>
       <c r="E4" t="str">
-        <v>Card 9</v>
+        <v>Never</v>
       </c>
       <c r="F4" t="str">
-        <v>Card 7</v>
+        <v>Only in japan</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Card 7</v>
+        <v/>
       </c>
       <c r="B5" t="str">
-        <v>Card 8</v>
+        <v>My waifu</v>
       </c>
       <c r="C5" t="str">
-        <v>Card 3</v>
+        <v>Not really</v>
       </c>
       <c r="D5" t="str">
         <v/>
       </c>
       <c r="E5" t="str">
-        <v>Card 9</v>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>Only in japan</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Never</v>
+      </c>
+      <c r="B6" t="str">
+        <v>My waifu</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>Old ones</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Not really</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Never</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>Sometimes</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Old ones</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Not really</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>